--- a/excels/live/\2023.12.05_20-44-32.xlsx
+++ b/excels/live/\2023.12.05_20-44-32.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1113,6 +1113,66 @@
       </c>
       <c r="H22" t="n">
         <v>-0.8071594074076316</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>20231205 23:47:49</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>43.17</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>SELL</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>-0.002432236153647337</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-0.4455119753742443</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-0.8794155056147243</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-0.8760433244858201</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>20231205 23:47:49</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>43.18</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>0.01256654055416539</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-0.4451123658614219</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-0.8794155056147243</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-0.8760433244858201</v>
       </c>
     </row>
   </sheetData>
